--- a/biology/Zoologie/Copadichromis_cyaneus/Copadichromis_cyaneus.xlsx
+++ b/biology/Zoologie/Copadichromis_cyaneus/Copadichromis_cyaneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copadichromis cyaneus est une espèce de poissons d'eau douce de la famille des Cichlidae endémique du lac Malawi en Afrique. Ce cichlidé fait partie des espèces communément appelées « Haplo ».
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre dans lac Malawi (au Malawi, au Mozambique et en Tanzanie)[1]. Cette espèce est présente uniquement dans les zones rocailleuses sans sédiment et où l'eau est clair[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre dans lac Malawi (au Malawi, au Mozambique et en Tanzanie). Cette espèce est présente uniquement dans les zones rocailleuses sans sédiment et où l'eau est clair.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Copadichromis cyaneus peut mesurer jusqu'à 190 mm de longueur totale[2]. Cette espèce se nourrit de zooplancton[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copadichromis cyaneus peut mesurer jusqu'à 190 mm de longueur totale. Cette espèce se nourrit de zooplancton.
 </t>
         </is>
       </c>
@@ -575,10 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
-Cette espèce est incubatrice buccale maternelle, les femelles gardent les œufs, larves et tout jeunes alevins environ 3 semaines, protégés dans leur gueule (sans manger ou en filtrant très légèrement les micro-détritus). Les mâles peuvent se montrer très insistants dès les premières maturités sexuelles des femelles, il est préférable de maintenir cette espèce en groupes de plusieurs individus (au moins en « trio » : un mâle pour deux femelles), de manière à diviser l'agressivité d'un mâle dominant sur plusieurs individus. 
-Croisement, hybridation, sélection
-Il est impératif de maintenir cette espèce et le genre Copadichromis seul ou en compagnie d'autres espèces, d'autres genre, mais de provenance similaire (lac Malawi), afin d'éviter toute facilité de croisement. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs variées ou albinos, dues à la sélection, à l'hybridation ou autres procédés.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est incubatrice buccale maternelle, les femelles gardent les œufs, larves et tout jeunes alevins environ 3 semaines, protégés dans leur gueule (sans manger ou en filtrant très légèrement les micro-détritus). Les mâles peuvent se montrer très insistants dès les premières maturités sexuelles des femelles, il est préférable de maintenir cette espèce en groupes de plusieurs individus (au moins en « trio » : un mâle pour deux femelles), de manière à diviser l'agressivité d'un mâle dominant sur plusieurs individus. 
 </t>
         </is>
       </c>
@@ -604,16 +623,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Aquariophilie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Copadichromis cyaneus (Trewavas, 1935)[3].
-L'espèce a été initialement classée dans le genre Haplochromis sous le protonyme Haplochromis cyaneus Trewavas, 1935[3],[4].
-Copadichromis cyaneus a pour synonymes[3] :
-Cyrtocara cyanea (Trewavas, 1935)
-Haplochromis cyaneus Trewavas, 1935</t>
+          <t>Croisement, hybridation, sélection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est impératif de maintenir cette espèce et le genre Copadichromis seul ou en compagnie d'autres espèces, d'autres genre, mais de provenance similaire (lac Malawi), afin d'éviter toute facilité de croisement. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs variées ou albinos, dues à la sélection, à l'hybridation ou autres procédés.
+</t>
         </is>
       </c>
     </row>
@@ -638,13 +660,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, cyaneus, du grec ancien κύανος, kúanos, « éclat bleu, métallique », fait probablement référence à la livrée bleu vif des mâles en période de reproduction[5].
-</t>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Copadichromis cyaneus (Trewavas, 1935).
+L'espèce a été initialement classée dans le genre Haplochromis sous le protonyme Haplochromis cyaneus Trewavas, 1935,.
+Copadichromis cyaneus a pour synonymes :
+Cyrtocara cyanea (Trewavas, 1935)
+Haplochromis cyaneus Trewavas, 1935</t>
         </is>
       </c>
     </row>
@@ -669,10 +696,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, cyaneus, du grec ancien κύανος, kúanos, « éclat bleu, métallique », fait probablement référence à la livrée bleu vif des mâles en période de reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Copadichromis_cyaneus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copadichromis_cyaneus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Ethelwynn Trewavas, « A synopsis of the Cichlid Fishes of Lake Nyasa », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 16, no 91,‎ juillet 1935, p. 65-118 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222933508655026, lire en ligne)</t>
         </is>
